--- a/Table_AttributeNames.xlsx
+++ b/Table_AttributeNames.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Suguru/Documents/Java_Programming/IT353_Project/Proj353/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/Netbeans/Proj353x/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Submissions" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,12 +28,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Attribute</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Datatype</t>
+  </si>
+  <si>
+    <t>USERID</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>SUBMISSIONID(PK)</t>
+  </si>
+  <si>
+    <t>RATING</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>SUBMISSION_DATE</t>
   </si>
 </sst>
 </file>
@@ -389,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -551,4 +576,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Table_AttributeNames.xlsx
+++ b/Table_AttributeNames.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/Netbeans/Proj353x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Suguru/Documents/Java_Programming/IT353_Project/Proj353/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Submissions" sheetId="3" r:id="rId2"/>
+    <sheet name="User" sheetId="4" r:id="rId2"/>
+    <sheet name="Submissions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Attribute</t>
   </si>
@@ -58,6 +59,45 @@
   </si>
   <si>
     <t>SUBMISSION_DATE</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>PAID</t>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>User_userName_PK PRIMARY KEY (userName)</t>
+  </si>
+  <si>
+    <t>User_paid_ck CHECK (paid IN ('Y', 'N')</t>
   </si>
 </sst>
 </file>
@@ -412,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -421,156 +461,196 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -580,9 +660,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>

--- a/Table_AttributeNames.xlsx
+++ b/Table_AttributeNames.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Suguru/Documents/Java_Programming/IT353_Project/Proj353/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\NetBeansApps\Proj353\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -184,6 +181,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -459,14 +459,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -477,177 +477,177 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -667,15 +667,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -695,7 +695,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -704,7 +704,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -715,7 +715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -733,7 +733,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -744,147 +744,147 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -904,14 +904,14 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -927,7 +927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -935,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -951,127 +951,127 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>

--- a/Table_AttributeNames.xlsx
+++ b/Table_AttributeNames.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\NetBeansApps\Proj353\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Suguru/Documents/JavaProjects/Proj353/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Attribute</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Datatype</t>
   </si>
   <si>
@@ -58,33 +58,9 @@
     <t>SUBMISSION_DATE</t>
   </si>
   <si>
-    <t>LASTNAME</t>
-  </si>
-  <si>
-    <t>FIRSTNAME</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>VARCHAR2(15)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(30)</t>
-  </si>
-  <si>
     <t>Constraint</t>
   </si>
   <si>
-    <t>PAID</t>
-  </si>
-  <si>
     <t>CHAR(1)</t>
   </si>
   <si>
@@ -95,13 +71,64 @@
   </si>
   <si>
     <t>User_paid_ck CHECK (paid IN ('Y', 'N')</t>
+  </si>
+  <si>
+    <t>SecurityCode</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>VARCHAR(3)</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>nameOnCard</t>
+  </si>
+  <si>
+    <t>creditCardNum</t>
+  </si>
+  <si>
+    <t>expirationMonth</t>
+  </si>
+  <si>
+    <t>expirationYear</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>VARCHAR(16)</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +140,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,8 +205,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -173,7 +218,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,11 +506,11 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,87 +614,87 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -667,106 +714,126 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,87 +871,87 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -904,11 +971,11 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,39 +983,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,71 +1074,71 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
